--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\TestCases\ITower-TestCase\集成测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE79B41-BCB7-4176-8D51-B1477A407499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4240205-C1AD-471A-918F-70DFE32F2B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66" yWindow="0" windowWidth="23190" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集成" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,418 @@
        此值高于实测空调待机时回风温度，
        且在空调制冷能力范围)
     * 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机分闸、合闸
+发生事件后的状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
+    * 空调通、断电曲线(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF388600"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
+    * 空调开、关机线条 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF787800"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤2后，查看页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条当前时刻位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤3后，查看页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置, 
+       维持约20s后，回到“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤2后，查看页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条当前时刻位置处于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 浏览器打开网页
+    * 用运维账号登录平台。
+    * 依次打开进入: 设备管理-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在运行控制器维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;
+       目标控制器-&gt;运行状态      </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤3中显示: 
+    * 空调通断电状态: 通电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4  在“空调通电状态" 处勾选”断电“， 单击”保存并下发“按钮
+    * 记录单击”保存并下发“按钮的时间 时:分:秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤4后, 回到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步骤1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所打开的页面。
+    * 查看彩色图标中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条的位置
+      步骤4记录的时间之后20秒内，可以看到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条的位置从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-压缩机启、停
+时间发生后状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制器、采集器、空调等所有设备通电，并处于工作状态
@@ -177,408 +589,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调机分闸、合闸
-发生事件后的状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调通、断电曲线(</t>
+    <r>
+      <t>控制器、采集器、空调等所有设备通电，并处于工作状态
+平台可查所有设备已在线
+回风温度传感器(</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF388600"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调开、关机线条 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF787800"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤2后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条当前时刻位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤3后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置, 
-       维持约20s后，回到“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”位置。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤2后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条当前时刻位置处于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3 浏览器打开网页
-    * 用运维账号登录平台。
-    * 依次打开进入: 设备管理-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在运行控制器维护</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;
-       目标控制器-&gt;运行状态      </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤3中显示: 
-    * 空调通断电状态: 通电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4  在“空调通电状态" 处勾选”断电“， 单击”保存并下发“按钮
-    * 记录单击”保存并下发“按钮的时间 时:分:秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤4后, 回到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>步骤1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所打开的页面。
-    * 查看彩色图标中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条的位置
-      步骤4记录的时间之后20秒内，可以看到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条的位置从</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>变为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断电</t>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空调机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)位置:
+  * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
+     温度传感器
+登录平台，"设备管理" -&gt; "在运行控制器维护" 
+  单击“查询”， 在查询列表中选择目标控制器.
+  在控制器的“节能配置”中设置：
+    * 工作温度上限： 28℃
+    * 工作参数上限补偿值: 0 (默认)
+    * 工作温度下限： 19℃ (参考测试环境，
+       此值高于实测空调待机时回风温度，
+       且在空调制冷能力范围)
+    * 工作参数下限补偿值: 0 (默认)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,41 +879,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1172,19 +1219,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="A1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -1196,7 +1243,7 @@
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="44"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1253,7 @@
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="44"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1263,7 @@
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="44"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1273,7 @@
       <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="44"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1283,7 @@
       <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="44"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="38" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1293,7 @@
       <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="44"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1303,7 @@
       <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="44"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1313,7 @@
       <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="44"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1323,7 @@
       <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="44"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1286,11 +1333,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1298,9 +1345,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1308,9 +1355,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1354,17 +1401,17 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="40">
+      <c r="A17" s="41">
         <v>1000</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="43">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>22</v>
+      <c r="D17" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
@@ -1374,38 +1421,38 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="40"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="40"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="46"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="46"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="17">
         <v>4</v>
       </c>
@@ -1414,7 +1461,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1424,15 +1471,15 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="39">
+      <c r="A22" s="46">
         <v>1001</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
-        <v>23</v>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>19</v>
@@ -1441,41 +1488,41 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="39"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="38"/>
       <c r="E23" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="39"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="38"/>
       <c r="E24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="39"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="38"/>
       <c r="E25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -1485,92 +1532,96 @@
       <c r="C26" s="27"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="42">
-        <v>3</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+    <row r="27" spans="1:11" ht="26.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="47">
+        <v>1002</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="47"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="38"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="42"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="38"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="38"/>
       <c r="E30" s="14"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:11" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="38"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+    <row r="32" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="38"/>
       <c r="E32" s="17"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+    <row r="33" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="38"/>
       <c r="E33" s="17"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+    <row r="34" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="38"/>
       <c r="E34" s="17"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+    <row r="35" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="38"/>
       <c r="E35" s="17"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="42"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+    <row r="36" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="47"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="38"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
+    <row r="37" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="38"/>
       <c r="E37" s="17"/>
       <c r="F37" s="14"/>
@@ -1582,25 +1633,25 @@
       <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="41">
+      <c r="A39" s="45">
         <v>4</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="26"/>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="41"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="26"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="41"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="E41" s="16"/>
       <c r="F41" s="14"/>
     </row>
@@ -1611,47 +1662,35 @@
       <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
@@ -1666,10 +1705,22 @@
     <mergeCell ref="B27:B37"/>
     <mergeCell ref="C27:C37"/>
     <mergeCell ref="D27:D37"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4240205-C1AD-471A-918F-70DFE32F2B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB64B95-55B6-4207-98C6-AD4AAF62460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66" yWindow="0" windowWidth="23190" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="21870" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集成" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,7 +590,13 @@
   </si>
   <si>
     <r>
-      <t>控制器、采集器、空调等所有设备通电，并处于工作状态
+      <t>* 开启节能控制:
+   登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
+   目标控制器-&gt;运行状态， 设置如下:
+        - 空调通电状态:  通电
+        - 压缩机运行状态: 待机
+        - 节能状态: 开启
+控制器、采集器、空调等所有设备通电，并处于工作状态
 平台可查所有设备已在线
 回风温度传感器(</t>
     </r>
@@ -627,6 +633,248 @@
        且在空调制冷能力范围)
     * 工作参数下限补偿值: 0 (默认)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 查看空调机用电及运行状态
+       打开平台查看空调机的电流及运行数据
+   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表。
+   - 用电数据： 选择空调机，查看当日实时用电数据::电流
+   - 设备数据： 选择空调机-&gt;运行时长，
+                          查看压缩机的线条(红色)位置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 关闭节能控制:
+    登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
+    目标控制器-&gt;运行状态， 设置如下:
+        - 空调通电状态:  通电
+        - 压缩机运行状态: 待机
+        - 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单击“保存并下发”按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 设置空调机
+    - 开启空调机，设置制热模式，设置制热温度20℃
+        (高于环境温度2℃，当前环境温度18℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤3后，空调机出风口有热风吹出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 空调机的实时电流最后采样点数值处于很低范围
+   (小于 1.0)
+* 空调机的压缩机工作状态线条(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，
+   处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置
+* 此时空调机的实际工作状态为“待机”，通电且
+  无风吹出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击完毕“保存并下发”按钮后，10秒内，
+空调机的状态从”关机“变为”待机"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4 步骤3操作完毕，且空调出风口有热风吹出后执行,
+   打开平台查看空调机的电流及运行数据
+   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表。
+   - 用电数据： 选择空调机，查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">电流
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - 设备数据： 选择空调机-&gt;运行时长，
+                          查看压缩机的线条(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 查看空调机的用电数据::电流数值变化:
+   当电流值明显变大后(曲线呈上升趋势)，
+   执行以下数据核对.
+   - 空调机的压缩机工作状态线条(红色)，
+      处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器固件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集器固件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项前置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,6 +1127,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,34 +1164,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1219,111 +1473,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1333,11 +1587,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="49"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1345,9 +1601,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="49"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1355,9 +1613,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1385,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1401,16 +1659,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="41">
+      <c r="A17" s="44">
         <v>1000</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="36">
         <v>0</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="38" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1421,10 +1679,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1435,10 +1693,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
@@ -1449,19 +1707,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="17">
-        <v>4</v>
-      </c>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1470,246 +1726,261 @@
       <c r="H21" s="20"/>
       <c r="K21" s="25"/>
     </row>
-    <row r="22" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="46">
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="40">
         <v>1001</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="14"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="40"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="14" t="s">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="40"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="17" t="s">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="40"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="47">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="42">
         <v>1002</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D29" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="47"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="17"/>
+      <c r="E29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="42"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="42"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="98.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A35" s="39">
+        <v>4</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A37" s="39"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="45">
-        <v>4</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="45"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+    <row r="38" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C37"/>
-    <mergeCell ref="D27:D37"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -1721,6 +1992,29 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB64B95-55B6-4207-98C6-AD4AAF62460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99510B-764F-46B9-BD43-D070DC119E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="0" windowWidth="21870" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,12 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 设置空调机
-    - 开启空调机，设置制热模式，设置制热温度20℃
-        (高于环境温度2℃，当前环境温度18℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步骤3后，空调机出风口有热风吹出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,6 +869,59 @@
   </si>
   <si>
     <t>子项前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 设置空调机模式
+    - 开启空调机，设置制热模式，设置制热温度20℃
+        (高于环境温度2℃，当前环境温度18℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5 设置空调机模式(空调机面板操作)
+   - 设置空调机工作模式为制冷
+   - 设置空调机温度为16℃
+6 开启节能控制:
+    登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
+    目标控制器-&gt;运行状态， 设置如下:
+        - 空调通电状态:  通电
+        - 压缩机运行状态: 待机
+        - 节能状态: 开启</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单击“保存并下发”按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤6后:
+   - 空调机立即关机。
+   - 参考步骤4，查看工作用电数据::电流值的大小，
+      数值为小值(小于1.0)
+   - 参考步骤4，查看压缩机工作状态, 
+      处于“”压缩机待机位置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,6 +1173,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1473,111 +1529,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="47"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="47"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1587,13 +1643,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="49"/>
+      <c r="B12" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="52"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1601,11 +1657,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="49"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="52"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1613,9 +1669,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="43"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1643,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1659,16 +1715,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="44">
+      <c r="A17" s="47">
         <v>1000</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="39">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1679,10 +1735,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="44"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1693,10 +1749,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="44"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
@@ -1707,17 +1763,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="44"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1737,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>2</v>
@@ -1753,14 +1809,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="40">
+      <c r="A23" s="43">
         <v>1001</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -1770,10 +1826,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="40"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
@@ -1783,10 +1839,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="40"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1796,10 +1852,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="17" t="s">
         <v>31</v>
       </c>
@@ -1825,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>2</v>
@@ -1841,143 +1897,155 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="42">
+      <c r="A29" s="45">
         <v>1002</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="41"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="45"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="98.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="45"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="98.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
+      <c r="A33" s="38"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="39">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A36" s="42">
         <v>4</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="39"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="26"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="39"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1997,24 +2065,24 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99510B-764F-46B9-BD43-D070DC119E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B267F-9453-424B-841E-9518E459A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="21870" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="792" yWindow="0" windowWidth="22248" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集成" sheetId="2" r:id="rId1"/>
@@ -687,147 +687,6 @@
   </si>
   <si>
     <r>
-      <t>* 空调机的实时电流最后采样点数值处于很低范围
-   (小于 1.0)
-* 空调机的压缩机工作状态线条(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)，
-   处于“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”位置
-* 此时空调机的实际工作状态为“待机”，通电且
-  无风吹出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击完毕“保存并下发”按钮后，10秒内，
-空调机的状态从”关机“变为”待机"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4 步骤3操作完毕，且空调出风口有热风吹出后执行,
-   打开平台查看空调机的电流及运行数据
-   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
-      目标站点-&gt;数据报表。
-   - 用电数据： 选择空调机，查看</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时用电数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">电流
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   - 设备数据： 选择空调机-&gt;运行时长，
-                          查看压缩机的线条(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>* 查看空调机的用电数据::电流数值变化:
    当电流值明显变大后(曲线呈上升趋势)，
    执行以下数据核对.
@@ -916,12 +775,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步骤6后:
-   - 空调机立即关机。
+    <r>
+      <t>* 空调机的实时电流最后采样点数值处于很低范围
+   (小于 1.0)
+* 空调机的压缩机工作状态线条(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，
+   处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置
+* (空调机面板)此时空调机的实际工作状态为“待机”，
+  通电且无风吹出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击完毕“保存并下发”按钮后，10秒内，
+空调机的状态从”待机“变为”运行"
+（此预期效果与空调机的默认配置相关。可不参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4 步骤3操作完毕，且空调出风口有热风吹出后执行,
+   打开平台查看空调机的电流及运行数据
+   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表。
+   - 用电数据： 选择空调机，查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">电流
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - 设备数据： 选择空调机-&gt;运行时长，
+                          查看压缩机的线条(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)位置
+   步骤4后，当前状态保持5分钟，再执行后续步骤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤5后:
    - 参考步骤4，查看工作用电数据::电流值的大小，
-      数值为小值(小于1.0)
-   - 参考步骤4，查看压缩机工作状态, 
-      处于“”压缩机待机位置。</t>
+      在数分钟内从大值变为小值(小于1.0)
+   - 参考步骤4, 当电流值小于1.0后
+      查看压缩机工作状态, 处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+步骤6后:
+   - 空调机立即关机。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,33 +1205,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,6 +1249,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -1529,111 +1557,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="50"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="50"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="50"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1643,13 +1671,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="52"/>
+      <c r="B12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="51"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1657,11 +1685,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="52"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="51"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1669,9 +1697,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1699,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1715,16 +1743,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="47">
+      <c r="A17" s="46">
         <v>1000</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="38">
         <v>0</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1735,10 +1763,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1749,10 +1777,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
@@ -1763,17 +1791,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1793,7 +1821,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>2</v>
@@ -1809,14 +1837,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>1001</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -1826,10 +1854,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="43"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="44"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
@@ -1839,10 +1867,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="43"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="44"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1852,10 +1880,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="43"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="17" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>2</v>
@@ -1897,66 +1925,66 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="45">
+      <c r="A29" s="44">
         <v>1002</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="45"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="45"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="51" t="s">
-        <v>46</v>
+      <c r="A31" s="44"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="98.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="44"/>
+    <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="44"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="44"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>48</v>
@@ -1979,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>2</v>
@@ -1995,25 +2023,25 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>4</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="26"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="26"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="E38" s="16"/>
       <c r="F38" s="14"/>
     </row>
@@ -2024,28 +2052,28 @@
       <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -2073,7 +2101,7 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C29:C33"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B40:B42"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B267F-9453-424B-841E-9518E459A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBBFBB-7149-4C85-AB1B-2F2C7082DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="792" yWindow="0" windowWidth="22248" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,8 +947,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>"位置。
-步骤6后:
-   - 空调机立即关机。</t>
+步骤6后10秒内，空调机立即关机。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBBFBB-7149-4C85-AB1B-2F2C7082DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE2A33-754D-413E-A586-24528BA7539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="0" windowWidth="22248" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集成" sheetId="2" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,52 +1204,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1537,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A29" sqref="A29:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1556,111 +1553,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="49"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="49"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="49"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1670,13 +1667,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1684,11 +1681,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1696,9 +1693,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1742,16 +1739,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="46">
+      <c r="A17" s="43">
         <v>1000</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="46">
         <v>0</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1762,10 +1759,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1776,10 +1773,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="46"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
@@ -1790,17 +1787,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="46"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1836,14 +1833,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="42">
+      <c r="A23" s="48">
         <v>1001</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="40" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -1853,10 +1850,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="42"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
@@ -1866,10 +1863,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="42"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1879,10 +1876,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="17" t="s">
         <v>31</v>
       </c>
@@ -1924,14 +1921,14 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="44">
+      <c r="A29" s="49">
         <v>1002</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="52" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="14" t="s">
@@ -1942,10 +1939,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="44"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="14" t="s">
         <v>37</v>
       </c>
@@ -1954,11 +1951,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="44"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="50" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="37" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -1966,10 +1963,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="44"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="14" t="s">
         <v>47</v>
       </c>
@@ -1978,10 +1975,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="37"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="14" t="s">
         <v>44</v>
       </c>
@@ -2022,25 +2019,25 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="41">
+      <c r="A36" s="45">
         <v>4</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="26"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="26"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="E38" s="16"/>
       <c r="F38" s="14"/>
     </row>
@@ -2051,31 +2048,54 @@
       <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -2087,29 +2107,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE2A33-754D-413E-A586-24528BA7539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7BA822-2331-4A34-B6F0-22BF21852B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1201,53 +1201,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,7 +1534,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A33"/>
+      <selection activeCell="C36" sqref="C36:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1553,19 +1550,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1577,7 +1574,7 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1584,7 @@
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1594,7 @@
       <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="40" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1604,7 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1614,7 @@
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1624,7 @@
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="40" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1634,7 @@
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="39"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="40" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1644,7 @@
       <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="39"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="40" t="s">
         <v>16</v>
       </c>
@@ -1657,7 +1654,7 @@
       <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="39"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1667,13 +1664,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1681,11 +1678,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1693,9 +1690,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1739,16 +1736,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="43">
+      <c r="A17" s="47">
         <v>1000</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="37">
         <v>0</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="39" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1759,10 +1756,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1773,10 +1770,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
@@ -1787,17 +1784,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="43"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
@@ -1833,11 +1830,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="48">
+      <c r="A23" s="42">
         <v>1001</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="40" t="s">
@@ -1850,9 +1849,9 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="48"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="40"/>
       <c r="E24" s="14" t="s">
         <v>24</v>
@@ -1863,9 +1862,9 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="48"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="40"/>
       <c r="E25" s="14" t="s">
         <v>29</v>
@@ -1876,9 +1875,9 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="48"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="40"/>
       <c r="E26" s="17" t="s">
         <v>31</v>
@@ -1921,11 +1920,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="49">
+      <c r="A29" s="44">
         <v>1002</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="50" t="s">
+      <c r="B29" s="37">
+        <v>0</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -1939,9 +1940,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="40"/>
       <c r="E30" s="14" t="s">
         <v>37</v>
@@ -1951,11 +1952,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="49"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -1963,9 +1964,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="49"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="50"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="40"/>
       <c r="E32" s="14" t="s">
         <v>47</v>
@@ -1975,9 +1976,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="49"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="50"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="40"/>
       <c r="E33" s="14" t="s">
         <v>44</v>
@@ -2019,25 +2020,27 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="45">
-        <v>4</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="A36" s="41">
+        <v>1003</v>
+      </c>
+      <c r="B36" s="37">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
       <c r="D36" s="26"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="26"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="E38" s="16"/>
       <c r="F38" s="14"/>
     </row>
@@ -2048,54 +2051,31 @@
       <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -2107,6 +2087,29 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7BA822-2331-4A34-B6F0-22BF21852B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC4011-DD80-4BEB-B8C9-B6D8901CCC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -948,6 +948,137 @@
       </rPr>
       <t>"位置。
 步骤6后10秒内，空调机立即关机。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-压缩机运行状态无变化时 
+- 间隔1小时上报状态一次
+- 每日0点时，上传一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 控制器、采集器、空调等所有设备通电，并处于工作状态
+  平台可查所有设备已在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 设置节能工作温度(保持空调机长时间待机)
+  - 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+     单击“查询”， 在查询列表中选择目标控制器.
+     在控制器的“节能配置”中设置：
+      + 工作温度上限： 28℃
+      + 工作参数上限补偿值: 0 (默认)
+      + 工作温度下限： 19℃ (参考测试环境，
+          此值高于实测空调待机时回风温度，
+         且在空调制冷能力范围)
+      + 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 设置节能状态
+   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
+      目标控制器 -&gt; 运行状态, 按如下设置:
+          + 空调通电状态: 通电
+          + 压缩机运行状态: 待机
+          + 节能状态: 节能
+      单击 ”保存并下发“ 按钮
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位置(压缩机待机/压缩机运行)，最右侧       
+         数据点的位置和时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 压缩机线条: 红色线条最新数据点位于
+  ”压缩机待机" 处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 压缩机线条： 时钟处于“压缩机待机”处，且自用例
+   执行时间至检查时间，压缩机数据中相邻两点的时
+   间差为1小时(±3分钟)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 将当前测试环境保持 23小时, 在23小时后执行步骤1查
+   看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1146,9 +1277,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1204,47 +1332,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1550,111 +1681,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="50"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="50"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="50"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1664,13 +1795,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1678,11 +1809,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1690,9 +1821,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1736,16 +1867,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="47">
+      <c r="A17" s="41">
         <v>1000</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="44">
         <v>0</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="49" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1756,10 +1887,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1770,11 +1901,11 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="17" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="14" t="s">
@@ -1784,24 +1915,24 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="47"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="H21" s="20"/>
-      <c r="K21" s="25"/>
+    <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="41"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="19"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
@@ -1830,16 +1961,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="42">
+      <c r="A23" s="46">
         <v>1001</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="44">
         <v>0</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -1849,10 +1980,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="42"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
@@ -1862,10 +1993,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="42"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1875,11 +2006,11 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="17" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -1887,11 +2018,11 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
+    <row r="27" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
@@ -1920,43 +2051,43 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="44">
+      <c r="A29" s="48">
         <v>1002</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="44">
         <v>0</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="38" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="44"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="44"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="36" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="35" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -1964,10 +2095,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="44"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="14" t="s">
         <v>47</v>
       </c>
@@ -1976,10 +2107,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="44"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="14" t="s">
         <v>44</v>
       </c>
@@ -1987,11 +2118,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="32"/>
+    <row r="34" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
@@ -2019,63 +2150,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="41">
+    <row r="36" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="43">
         <v>1003</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="E38" s="16"/>
+      <c r="C36" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="132.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="100.8" x14ac:dyDescent="0.5">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="15"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="35"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
+    <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -2087,29 +2286,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC4011-DD80-4BEB-B8C9-B6D8901CCC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BDF835-77BF-4992-B40A-AD7D6CBE785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BDF835-77BF-4992-B40A-AD7D6CBE785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2110EC-E2F2-495C-804E-2014E0DB566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,7 +144,855 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制器、采集器、空调等所有设备通电，并处于工作状态
+    <t>空调机分闸、合闸
+发生事件后的状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
+    * 空调通、断电曲线(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF388600"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
+    * 空调开、关机线条 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF787800"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤2后，查看页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条当前时刻位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤3后，查看页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条位置处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置, 
+       维持约20s后，回到“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤2后，查看页面:
+    * 图表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条当前时刻位置处于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 浏览器打开网页
+    * 用运维账号登录平台。
+    * 依次打开进入: 设备管理-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在运行控制器维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;
+       目标控制器-&gt;运行状态      </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤3中显示: 
+    * 空调通断电状态: 通电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4  在“空调通电状态" 处勾选”断电“， 单击”保存并下发“按钮
+    * 记录单击”保存并下发“按钮的时间 时:分:秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤4后, 回到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步骤1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所打开的页面。
+    * 查看彩色图标中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条的位置
+      步骤4记录的时间之后20秒内，可以看到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线条的位置从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断电</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-压缩机启、停
+时间发生后状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 查看空调机用电及运行状态
+       打开平台查看空调机的电流及运行数据
+   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表。
+   - 用电数据： 选择空调机，查看当日实时用电数据::电流
+   - 设备数据： 选择空调机-&gt;运行时长，
+                          查看压缩机的线条(红色)位置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 关闭节能控制:
+    登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
+    目标控制器-&gt;运行状态， 设置如下:
+        - 空调通电状态:  通电
+        - 压缩机运行状态: 待机
+        - 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单击“保存并下发”按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤3后，空调机出风口有热风吹出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 查看空调机的用电数据::电流数值变化:
+   当电流值明显变大后(曲线呈上升趋势)，
+   执行以下数据核对.
+   - 空调机的压缩机工作状态线条(红色)，
+      处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器固件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集器固件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 设置空调机模式
+    - 开启空调机，设置制热模式，设置制热温度20℃
+        (高于环境温度2℃，当前环境温度18℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5 设置空调机模式(空调机面板操作)
+   - 设置空调机工作模式为制冷
+   - 设置空调机温度为16℃
+6 开启节能控制:
+    登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
+    目标控制器-&gt;运行状态， 设置如下:
+        - 空调通电状态:  通电
+        - 压缩机运行状态: 待机
+        - 节能状态: 开启</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单击“保存并下发”按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 空调机的实时电流最后采样点数值处于很低范围
+   (小于 1.0)
+* 空调机的压缩机工作状态线条(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，
+   处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”位置
+* (空调机面板)此时空调机的实际工作状态为“待机”，
+  通电且无风吹出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击完毕“保存并下发”按钮后，10秒内，
+空调机的状态从”待机“变为”运行"
+（此预期效果与空调机的默认配置相关。可不参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4 步骤3操作完毕，且空调出风口有热风吹出后执行,
+   打开平台查看空调机的电流及运行数据
+   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表。
+   - 用电数据： 选择空调机，查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时用电数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">电流
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - 设备数据： 选择空调机-&gt;运行时长，
+                          查看压缩机的线条(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)位置
+   步骤4后，当前状态保持5分钟，再执行后续步骤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>步骤5后:
+   - 参考步骤4，查看工作用电数据::电流值的大小，
+      在数分钟内从大值变为小值(小于1.0)
+   - 参考步骤4, 当电流值小于1.0后
+      查看压缩机工作状态, 处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"位置。
+步骤6后10秒内，空调机立即关机。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 设置节能工作温度(保持空调机长时间待机)
+  - 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+     单击“查询”， 在查询列表中选择目标控制器.
+     在控制器的“节能配置”中设置：
+      + 工作温度上限： 28℃
+      + 工作参数上限补偿值: 0 (默认)
+      + 工作温度下限： 19℃ (参考测试环境，
+          此值高于实测空调待机时回风温度，
+         且在空调制冷能力范围)
+      + 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 设置节能状态
+   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
+      目标控制器 -&gt; 运行状态, 按如下设置:
+          + 空调通电状态: 通电
+          + 压缩机运行状态: 待机
+          + 节能状态: 节能
+      单击 ”保存并下发“ 按钮
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位置(压缩机待机/压缩机运行)，最右侧       
+         数据点的位置和时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 压缩机线条: 红色线条最新数据点位于
+  ”压缩机待机" 处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 将当前测试环境保持 23小时, 在23小时后执行步骤1查
+   看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机-压缩机待机状态
+无变化时
+- 间隔1小时上报状态一次
+- 每日0点时，上传一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器、采集器、空调等所有设备通电，并处于在线状态
 平台可查所有设备已在线
 回风温度传感器位置:
   * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
@@ -158,423 +1006,17 @@
        此值高于实测空调待机时回风温度，
        且在空调制冷能力范围)
     * 工作参数下限补偿值: 0 (默认)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机分闸、合闸
-发生事件后的状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调通、断电曲线(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF388600"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将平台页面滑动至最下方(彩色多数据视图)，关注图中以下内容:
-    * 空调开、关机线条 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF787800"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤2后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条当前时刻位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤3后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条位置处于"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置, 
-       维持约20s后，回到“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”位置。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤2后，查看页面:
-    * 图表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条当前时刻位置处于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3 浏览器打开网页
-    * 用运维账号登录平台。
-    * 依次打开进入: 设备管理-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在运行控制器维护</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;
-       目标控制器-&gt;运行状态      </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤3中显示: 
-    * 空调通断电状态: 通电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4  在“空调通电状态" 处勾选”断电“， 单击”保存并下发“按钮
-    * 记录单击”保存并下发“按钮的时间 时:分:秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤4后, 回到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>步骤1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所打开的页面。
-    * 查看彩色图标中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条的位置
-      步骤4记录的时间之后20秒内，可以看到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线条的位置从</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>变为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>断电</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-压缩机启、停
-时间发生后状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器、采集器、空调等所有设备通电，并处于工作状态
+  </si>
+  <si>
+    <t>* 开启节能控制:
+   登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
+   目标控制器-&gt;运行状态， 设置如下:
+        - 空调通电状态:  通电
+        - 压缩机运行状态: 待机
+        - 节能状态: 开启
+控制器、采集器、空调等所有设备通电，并处于在线状态
 平台可查所有设备已在线
-回风温度传感器位置:
+回风温度传感器(空调机的)位置:
   * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
      温度传感器
 登录平台，"设备管理" -&gt; "在运行控制器维护" 
@@ -586,31 +1028,38 @@
        此值高于实测空调待机时回风温度，
        且在空调制冷能力范围)
     * 工作参数下限补偿值: 0 (默认)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 开启节能控制:
-   登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
-   目标控制器-&gt;运行状态， 设置如下:
-        - 空调通电状态:  通电
-        - 压缩机运行状态: 待机
-        - 节能状态: 开启
-控制器、采集器、空调等所有设备通电，并处于工作状态
-平台可查所有设备已在线
-回风温度传感器(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空调机的</t>
+  </si>
+  <si>
+    <t>* 控制器、采集器、空调等所有设备通电，并处于在线状态
+  平台可查所有设备已在线</t>
+  </si>
+  <si>
+    <t>节能开启状态
+空调机-压缩机待机状态
+无变化时
+* 压缩机状态上报频率:
+  - 间隔1小时上报状态
+     一次
+  - 每日0点时，上传一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条： 时钟处于“压缩机待机”处，且自用例
+   执行时间至检查时间，压缩机数据中相邻两点的时
+   间差不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
     </r>
     <r>
       <rPr>
@@ -620,465 +1069,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)位置:
-  * 安装在距离空调出风口1-1.5m处，空调出风直吹回风
-     温度传感器
-登录平台，"设备管理" -&gt; "在运行控制器维护" 
-  单击“查询”， 在查询列表中选择目标控制器.
-  在控制器的“节能配置”中设置：
-    * 工作温度上限： 28℃
-    * 工作参数上限补偿值: 0 (默认)
-    * 工作温度下限： 19℃ (参考测试环境，
-       此值高于实测空调待机时回风温度，
-       且在空调制冷能力范围)
-    * 工作参数下限补偿值: 0 (默认)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 查看空调机用电及运行状态
-       打开平台查看空调机的电流及运行数据
-   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
-      目标站点-&gt;数据报表。
-   - 用电数据： 选择空调机，查看当日实时用电数据::电流
-   - 设备数据： 选择空调机-&gt;运行时长，
-                          查看压缩机的线条(红色)位置
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 关闭节能控制:
-    登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
-    目标控制器-&gt;运行状态， 设置如下:
-        - 空调通电状态:  通电
-        - 压缩机运行状态: 待机
-        - 节能状态: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单击“保存并下发”按钮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤3后，空调机出风口有热风吹出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 查看空调机的用电数据::电流数值变化:
-   当电流值明显变大后(曲线呈上升趋势)，
-   执行以下数据核对.
-   - 空调机的压缩机工作状态线条(红色)，
-      处于“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器固件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集器固件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 设置空调机模式
-    - 开启空调机，设置制热模式，设置制热温度20℃
-        (高于环境温度2℃，当前环境温度18℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5 设置空调机模式(空调机面板操作)
-   - 设置空调机工作模式为制冷
-   - 设置空调机温度为16℃
-6 开启节能控制:
-    登录平台(运维账号)， 设备管理-&gt;在运行控制器维护-&gt;
-    目标控制器-&gt;运行状态， 设置如下:
-        - 空调通电状态:  通电
-        - 压缩机运行状态: 待机
-        - 节能状态: 开启</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单击“保存并下发”按钮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 空调机的实时电流最后采样点数值处于很低范围
-   (小于 1.0)
-* 空调机的压缩机工作状态线条(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)，
-   处于“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”位置
-* (空调机面板)此时空调机的实际工作状态为“待机”，
-  通电且无风吹出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击完毕“保存并下发”按钮后，10秒内，
-空调机的状态从”待机“变为”运行"
-（此预期效果与空调机的默认配置相关。可不参考）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4 步骤3操作完毕，且空调出风口有热风吹出后执行,
-   打开平台查看空调机的电流及运行数据
-   - 登录平台(运维账号），设备管理-&gt;站点设备信息-&gt;
-      目标站点-&gt;数据报表。
-   - 用电数据： 选择空调机，查看</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时用电数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">电流
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   - 设备数据： 选择空调机-&gt;运行时长，
-                          查看压缩机的线条(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)位置
-   步骤4后，当前状态保持5分钟，再执行后续步骤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>步骤5后:
-   - 参考步骤4，查看工作用电数据::电流值的大小，
-      在数分钟内从大值变为小值(小于1.0)
-   - 参考步骤4, 当电流值小于1.0后
-      查看压缩机工作状态, 处于“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"位置。
-步骤6后10秒内，空调机立即关机。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-压缩机运行状态无变化时 
-- 间隔1小时上报状态一次
-- 每日0点时，上传一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 控制器、采集器、空调等所有设备通电，并处于工作状态
-  平台可查所有设备已在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 设置节能工作温度(保持空调机长时间待机)
-  - 登录平台，"设备管理" -&gt; "在运行控制器维护" 
-     单击“查询”， 在查询列表中选择目标控制器.
-     在控制器的“节能配置”中设置：
-      + 工作温度上限： 28℃
-      + 工作参数上限补偿值: 0 (默认)
-      + 工作温度下限： 19℃ (参考测试环境，
-          此值高于实测空调待机时回风温度，
-         且在空调制冷能力范围)
-      + 工作参数下限补偿值: 0 (默认)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 设置节能状态
-   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
-      目标控制器 -&gt; 运行状态, 按如下设置:
-          + 空调通电状态: 通电
-          + 压缩机运行状态: 待机
-          + 节能状态: 节能
-      单击 ”保存并下发“ 按钮
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位置(压缩机待机/压缩机运行)，最右侧       
-         数据点的位置和时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 压缩机线条: 红色线条最新数据点位于
-  ”压缩机待机" 处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 压缩机线条： 时钟处于“压缩机待机”处，且自用例
-   执行时间至检查时间，压缩机数据中相邻两点的时
-   间差为1小时(±3分钟)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将当前测试环境保持 23小时, 在23小时后执行步骤1查
-   看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"。</t>
+      <t>(±3分钟)。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1682,7 +1673,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
       <c r="A1" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1799,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="14"/>
@@ -1811,7 +1802,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="39"/>
       <c r="B13" s="40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="14"/>
@@ -1851,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>2</v>
@@ -1877,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
@@ -1892,10 +1883,10 @@
       <c r="C18" s="45"/>
       <c r="D18" s="49"/>
       <c r="E18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1909,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1945,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>2</v>
@@ -1968,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
@@ -1985,10 +1976,10 @@
       <c r="C24" s="45"/>
       <c r="D24" s="38"/>
       <c r="E24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -1998,10 +1989,10 @@
       <c r="C25" s="45"/>
       <c r="D25" s="38"/>
       <c r="E25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -2011,10 +2002,10 @@
       <c r="C26" s="45"/>
       <c r="D26" s="38"/>
       <c r="E26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -2035,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>2</v>
@@ -2058,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="F29" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
@@ -2076,10 +2067,10 @@
       <c r="C30" s="47"/>
       <c r="D30" s="38"/>
       <c r="E30" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
@@ -2088,10 +2079,10 @@
       <c r="C31" s="47"/>
       <c r="D31" s="38"/>
       <c r="E31" s="35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
@@ -2100,10 +2091,10 @@
       <c r="C32" s="47"/>
       <c r="D32" s="38"/>
       <c r="E32" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
@@ -2112,10 +2103,10 @@
       <c r="C33" s="47"/>
       <c r="D33" s="38"/>
       <c r="E33" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.5">
@@ -2135,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>2</v>
@@ -2158,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="132.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -2175,13 +2166,13 @@
       <c r="B37" s="44"/>
       <c r="C37" s="50"/>
       <c r="D37" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E37" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="35" t="s">
         <v>56</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="100.8" x14ac:dyDescent="0.5">
@@ -2189,7 +2180,7 @@
       <c r="B38" s="44"/>
       <c r="C38" s="50"/>
       <c r="D38" s="35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="14"/>
@@ -2211,7 +2202,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>2</v>
@@ -2227,16 +2218,23 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B41" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="C42" s="50"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B45" s="44"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2110EC-E2F2-495C-804E-2014E0DB566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAEF25F-5ECA-47AE-AFFD-4CE387F37F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,67 +892,6 @@
           + 节能状态: 节能
       单击 ”保存并下发“ 按钮
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位置(压缩机待机/压缩机运行)，最右侧       
-         数据点的位置和时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 压缩机线条: 红色线条最新数据点位于
-  ”压缩机待机" 处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1034,20 +973,13 @@
   平台可查所有设备已在线</t>
   </si>
   <si>
-    <t>节能开启状态
-空调机-压缩机待机状态
-无变化时
+    <r>
+      <t>*节能开启状态
+*空调机-压缩机待机状态
+*人体传感器未触发
+上述状态保持无变化
 * 压缩机状态上报频率:
-  - 间隔1小时上报状态
-     一次
-  - 每日0点时，上传一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 压缩机线条： 时钟处于“压缩机待机”处，且自用例
-   执行时间至检查时间，压缩机数据中相邻两点的时
-   间差不超过</t>
+  - 间隔最长</t>
     </r>
     <r>
       <rPr>
@@ -1060,6 +992,163 @@
         <scheme val="minor"/>
       </rPr>
       <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更新
+    状态一次
+  - 每日0点时，更新一次
+* 人体数据上报频率
+  - 间隔最长30分钟
+    更新一次
+  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(压缩机-待机/运行)，新增数据点的
+         时间和位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天蓝色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(人体-有人/无人)，新增数据点的
+         时间和位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 压缩机线条: 最新数据点位于”压缩机待机" 处
+* 人体线条: 最新数据点位于”无人" 处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条： 始终处于“压缩机待机”处，且自用例
+   执行时间至当前时间，所有相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。
+* 人体线条： 始终处于“无人”处，且自用例
+   执行时间至当前时间，所有相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30分钟</t>
     </r>
     <r>
       <rPr>
@@ -1655,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1868,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
@@ -1962,7 +2051,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
@@ -2052,7 +2141,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>33</v>
@@ -2141,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="108.3" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="43">
         <v>1003</v>
       </c>
@@ -2149,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="132.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -2169,7 +2258,7 @@
         <v>46</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="35" t="s">
         <v>56</v>
@@ -2225,7 +2314,7 @@
         <v>1003</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAEF25F-5ECA-47AE-AFFD-4CE387F37F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08E729-ECB9-48F1-A86C-3C8093D28AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -921,13 +921,6 @@
       </rPr>
       <t>"。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调机-压缩机待机状态
-无变化时
-- 间隔1小时上报状态一次
-- 每日0点时，上传一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -974,8 +967,257 @@
   </si>
   <si>
     <r>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(压缩机-待机/运行)，新增数据点的
+         时间和位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天蓝色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(人体-有人/无人)，新增数据点的
+         时间和位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 压缩机线条: 最新数据点位于”压缩机待机" 处
+* 人体线条: 最新数据点位于”无人" 处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条： 始终处于“压缩机待机”处，且自用例
+   执行时间至当前时间，所有相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。
+* 人体线条： 始终处于“无人”处，且自用例
+   执行时间至当前时间，所有相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">压缩机运行时长统计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（数据报表-&gt;运行时长-&gt;压缩机运行时长）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">空调开机时长统计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（数据报表-&gt;运行时长-&gt;空调开关机时长）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>*节能开启状态
-*空调机-压缩机待机状态
+*空调机-压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
+*人体传感器未触发
+上述状态保持无变化
+* 压缩机状态上报频率:
+  - 间隔最长1小时更新
+    状态一次
+  - 每日0点时，更新一次
+* 人体数据上报频率
+  - 间隔最长30分钟
+    更新一次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*节能开启状态
+*空调机-压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
 *人体传感器未触发
 上述状态保持无变化
 * 压缩机状态上报频率:
@@ -1011,163 +1253,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>1 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(压缩机-待机/运行)，新增数据点的
-         时间和位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>天蓝色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(人体-有人/无人)，新增数据点的
-         时间和位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 压缩机线条: 最新数据点位于”压缩机待机" 处
-* 人体线条: 最新数据点位于”无人" 处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 压缩机线条： 始终处于“压缩机待机”处，且自用例
-   执行时间至当前时间，所有相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1小时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。
-* 人体线条： 始终处于“无人”处，且自用例
-   执行时间至当前时间，所有相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1349,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1315,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,6 +1511,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1744,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1761,111 +1864,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -1875,13 +1978,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1889,11 +1992,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1901,9 +2004,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1947,17 +2050,17 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>1000</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="45">
         <v>0</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>50</v>
+      <c r="D17" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
@@ -1967,10 +2070,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
@@ -1981,10 +2084,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
@@ -1995,17 +2098,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="49"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20"/>
@@ -2041,17 +2144,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46">
+      <c r="A23" s="47">
         <v>1001</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="45">
         <v>0</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>50</v>
+      <c r="D23" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
@@ -2060,10 +2163,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="14" t="s">
         <v>23</v>
       </c>
@@ -2073,10 +2176,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
@@ -2086,10 +2189,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2131,17 +2234,17 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="48">
+      <c r="A29" s="49">
         <v>1002</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="45">
         <v>0</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>51</v>
+      <c r="D29" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>33</v>
@@ -2151,10 +2254,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="14" t="s">
         <v>34</v>
       </c>
@@ -2163,10 +2266,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="48"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="35" t="s">
         <v>40</v>
       </c>
@@ -2175,10 +2278,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="14" t="s">
         <v>44</v>
       </c>
@@ -2187,10 +2290,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="14" t="s">
         <v>41</v>
       </c>
@@ -2231,29 +2334,29 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="108.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="43">
+      <c r="A36" s="44">
         <v>1003</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="45">
         <v>0</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="37" spans="1:8" ht="132.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="14" t="s">
         <v>46</v>
       </c>
@@ -2261,13 +2364,13 @@
         <v>48</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="35" t="s">
         <v>47</v>
       </c>
@@ -2306,41 +2409,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="1">
+    <row r="41" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="45">
         <v>1004</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="45">
         <v>1003</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B42" s="44"/>
-      <c r="C42" s="50"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B43" s="44"/>
-      <c r="C43" s="50"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
+      <c r="C41" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="51"/>
+    </row>
+    <row r="43" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="51"/>
+    </row>
+    <row r="44" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="36">
+        <v>1005</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="36">
+        <v>1006</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
+  <mergeCells count="33">
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D17:D20"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08E729-ECB9-48F1-A86C-3C8093D28AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B312F5-8265-4F28-8218-D2A3D810639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1063,61 +1063,6 @@
   </si>
   <si>
     <r>
-      <t>* 压缩机线条： 始终处于“压缩机待机”处，且自用例
-   执行时间至当前时间，所有相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1小时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。
-* 人体线条： 始终处于“无人”处，且自用例
-   执行时间至当前时间，所有相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">压缩机运行时长统计
 </t>
     </r>
@@ -1156,6 +1101,178 @@
   </si>
   <si>
     <r>
+      <t>* 人体线条数据点的位置： 始终处于“无人”处
+* 人体线条数据点的时间: 相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 步骤2完成后，查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据采样点。   
+   - 在测试时间内新增的所有数据点的位置。
+   - 在测试时间内新增的所有数据点的时间，比较相邻两点
+       的时间差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4 步骤3完成后，查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人体线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据采样点。   
+   - 在测试时间内新增的所有数据点的位置。
+   - 在测试时间内新增的所有数据点的时间，比较相邻两点
+       的时间差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条数据点的位置: 始终处于“压缩机待机”处。
+* 压缩机线条数据点的时间: 相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>*节能开启状态
 *空调机-压缩机</t>
     </r>
@@ -1169,6 +1286,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
+*人体传感器未触发
+上述状态保持无变化
+* 压缩机状态上报频率:
+  - 间隔最长</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更新
+    状态一次
+  - 每日0点时，更新一次
+* 人体数据上报频率
+  - 间隔最长30分钟
+    更新一次
+  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*节能开启状态
+*空调机-压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>运行</t>
     </r>
     <r>
@@ -1176,7 +1356,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>状态
@@ -1189,67 +1370,6 @@
 * 人体数据上报频率
   - 间隔最长30分钟
     更新一次</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*节能开启状态
-*空调机-压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态
-*人体传感器未触发
-上述状态保持无变化
-* 压缩机状态上报频率:
-  - 间隔最长</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1小时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">更新
-    状态一次
-  - 每日0点时，更新一次
-* 人体数据上报频率
-  - 间隔最长30分钟
-    更新一次
-  </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1415,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,15 +1662,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,6 +1673,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,16 +1980,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="10.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="56" customWidth="1"/>
     <col min="4" max="4" width="46.84765625" style="13" customWidth="1"/>
     <col min="5" max="5" width="46.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.34765625" customWidth="1"/>
@@ -1970,7 +2105,7 @@
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="38"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="11"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2016,7 +2151,7 @@
     <row r="15" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2030,7 +2165,7 @@
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2056,10 +2191,10 @@
       <c r="B17" s="45">
         <v>0</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -2072,8 +2207,8 @@
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="42"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2221,8 @@
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="42"/>
       <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
@@ -2100,8 +2235,8 @@
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="42"/>
       <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="3"/>
@@ -2110,7 +2245,7 @@
     <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="42"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
@@ -2124,7 +2259,7 @@
       <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2144,13 +2279,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="47">
+      <c r="A23" s="46">
         <v>1001</v>
       </c>
       <c r="B23" s="45">
         <v>0</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="39" t="s">
@@ -2163,9 +2298,9 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="47"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="39"/>
       <c r="E24" s="14" t="s">
         <v>23</v>
@@ -2176,9 +2311,9 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="39"/>
       <c r="E25" s="14" t="s">
         <v>28</v>
@@ -2189,9 +2324,9 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="47"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="39"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
@@ -2204,7 +2339,7 @@
     <row r="27" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2214,7 +2349,7 @@
       <c r="B28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2234,7 +2369,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="49">
+      <c r="A29" s="47">
         <v>1002</v>
       </c>
       <c r="B29" s="45">
@@ -2254,7 +2389,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="49"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="45"/>
       <c r="C30" s="48"/>
       <c r="D30" s="39"/>
@@ -2266,7 +2401,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="49"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="45"/>
       <c r="C31" s="48"/>
       <c r="D31" s="39"/>
@@ -2278,7 +2413,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="49"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="45"/>
       <c r="C32" s="48"/>
       <c r="D32" s="39"/>
@@ -2290,7 +2425,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="49"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="45"/>
       <c r="C33" s="48"/>
       <c r="D33" s="39"/>
@@ -2304,7 +2439,7 @@
     <row r="34" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2314,7 +2449,7 @@
       <c r="B35" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2340,8 +2475,8 @@
       <c r="B36" s="45">
         <v>0</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>58</v>
+      <c r="C36" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>51</v>
@@ -2356,123 +2491,216 @@
     <row r="37" spans="1:8" ht="132.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="51"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="100.8" x14ac:dyDescent="0.5">
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="44"/>
       <c r="B38" s="45"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="35" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A40" s="6" t="s">
+      <c r="E38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="45">
+    <row r="42" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="45">
         <v>1004</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B42" s="45">
         <v>1003</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="51"/>
-    </row>
-    <row r="43" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C42" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
-      <c r="C43" s="51"/>
-    </row>
-    <row r="44" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="36">
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="36">
         <v>1005</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B46" s="1">
         <v>0</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="36">
+      <c r="C46" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="78.3" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="36">
         <v>1006</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="C48" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B50" s="13"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B51" s="13"/>
+      <c r="C51" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
+  <mergeCells count="34">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B312F5-8265-4F28-8218-D2A3D810639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE7C786-0477-48D2-9465-BBFC634FA993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,19 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 设置节能工作温度(保持空调机长时间待机)
-  - 登录平台，"设备管理" -&gt; "在运行控制器维护" 
-     单击“查询”， 在查询列表中选择目标控制器.
-     在控制器的“节能配置”中设置：
-      + 工作温度上限： 28℃
-      + 工作参数上限补偿值: 0 (默认)
-      + 工作温度下限： 19℃ (参考测试环境，
-          此值高于实测空调待机时回风温度，
-         且在空调制冷能力范围)
-      + 工作参数下限补偿值: 0 (默认)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">* 设置节能状态
    - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
       目标控制器 -&gt; 运行状态, 按如下设置:
@@ -892,35 +879,6 @@
           + 节能状态: 节能
       单击 ”保存并下发“ 按钮
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2 将当前测试环境保持 23小时, 在23小时后执行步骤1查
-   看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -962,106 +920,6 @@
     * 工作参数下限补偿值: 0 (默认)</t>
   </si>
   <si>
-    <t>* 控制器、采集器、空调等所有设备通电，并处于在线状态
-  平台可查所有设备已在线</t>
-  </si>
-  <si>
-    <r>
-      <t>1 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(压缩机-待机/运行)，新增数据点的
-         时间和位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>天蓝色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(人体-有人/无人)，新增数据点的
-         时间和位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 压缩机线条: 最新数据点位于”压缩机待机" 处
-* 人体线条: 最新数据点位于”无人" 处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">压缩机运行时长统计
 </t>
@@ -1116,147 +974,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>30分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3 步骤2完成后，查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”,中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据采样点。   
-   - 在测试时间内新增的所有数据点的位置。
-   - 在测试时间内新增的所有数据点的时间，比较相邻两点
-       的时间差</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4 步骤3完成后，查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”,中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人体线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据采样点。   
-   - 在测试时间内新增的所有数据点的位置。
-   - 在测试时间内新增的所有数据点的时间，比较相邻两点
-       的时间差</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 压缩机线条数据点的位置: 始终处于“压缩机待机”处。
-* 压缩机线条数据点的时间: 相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1小时</t>
     </r>
     <r>
       <rPr>
@@ -1370,6 +1087,331 @@
 * 人体数据上报频率
   - 间隔最长30分钟
     更新一次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(压缩机-待机/运行)，新增数据点的
+         时间和位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天蓝色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(人体-有人/无人)，新增数据点的
+         时间和位置
+2 将当前测试环境保持 23小时, 在23小时后执行步骤1查
+   看“当日实时数据"。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 控制器、采集器、空调等所有设备通电，并处于在线状态
+  平台可查所有设备已在线
+* 设置节能工作温度(保持空调机长时间待机)
+  - 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+     单击“查询”， 在查询列表中选择目标控制器.
+     在控制器的“节能配置”中设置：
+      + 工作温度上限： 28℃
+      + 工作参数上限补偿值: 0 (默认)
+      + 工作温度下限： 19℃ (参考测试环境，
+          此值高于实测空调待机时回风温度，
+         且在空调制冷能力范围)
+      + 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 完成步骤2, 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据采样点。   
+   - 在测试时间内新增的所有数据点的位置。
+   - 在测试时间内新增的所有数据点的时间，比较相邻两点
+       的时间差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4 完成步骤3, 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人体线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据采样点。   
+   - 在测试时间内新增的所有数据点的位置。
+   - 在测试时间内新增的所有数据点的时间，比较相邻两点
+       的时间差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条: 最新数据点位于”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 处
+* 人体线条: 最新数据点位于”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 处</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条数据点的位置: 始终处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩机待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”处。
+* 压缩机线条数据点的时间: 相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1980,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2195,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
@@ -2289,7 +2331,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
@@ -2379,7 +2421,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>33</v>
@@ -2468,7 +2510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="108.3" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="44">
         <v>1003</v>
       </c>
@@ -2476,226 +2518,214 @@
         <v>0</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="132.6" customHeight="1" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
       <c r="C37" s="48"/>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="44"/>
       <c r="B38" s="45"/>
       <c r="C38" s="48"/>
-      <c r="D38" s="39" t="s">
-        <v>47</v>
-      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A41" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C40" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="45">
+    <row r="41" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="45">
         <v>1004</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B41" s="45">
         <v>1003</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C41" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="49"/>
     </row>
-    <row r="44" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="49"/>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A45" s="6" t="s">
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C44" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="36">
+    <row r="45" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="36">
         <v>1005</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B45" s="1">
         <v>0</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A47" s="6" t="s">
+      <c r="C45" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C46" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="78.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="36">
+    <row r="47" spans="1:8" ht="78.3" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="36">
         <v>1006</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A49" s="6" t="s">
+      <c r="C47" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C48" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B49" s="13"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B50" s="13"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE7C786-0477-48D2-9465-BBFC634FA993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BFAF2-5078-43CA-A961-8968891C73B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,37 +959,6 @@
   </si>
   <si>
     <r>
-      <t>* 人体线条数据点的位置： 始终处于“无人”处
-* 人体线条数据点的时间: 相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>*节能开启状态
 *空调机-压缩机</t>
     </r>
@@ -1087,99 +1056,6 @@
 * 人体数据上报频率
   - 间隔最长30分钟
     更新一次</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(压缩机-待机/运行)，新增数据点的
-         时间和位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>天蓝色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(人体-有人/无人)，新增数据点的
-         时间和位置
-2 将当前测试环境保持 23小时, 在23小时后执行步骤1查
-   看“当日实时数据"。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1310,54 +1186,126 @@
   </si>
   <si>
     <r>
-      <t>* 压缩机线条: 最新数据点位于”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 处
-* 人体线条: 最新数据点位于”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 处</t>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(压缩机-待机/运行)，新增数据点的
+         时间和位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天蓝色线条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(人体-有人/无人)，新增数据点的
+         时间和位置
+2 将当前测试环境保持 25小时以上, 第25小时后执行步骤1查
+   看“当日实时数据"。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 人体线条数据点的位置： 始终处于“无人”处
+* 人体线条数据点的时间: 相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。
+* 在测试周期内, 00:00(±3分钟)处可查看到人体数据</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1411,7 +1359,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(±3分钟)。</t>
+      <t>(±3分钟)。
+* 在测试周期内, 00:00(±3分钟)处可查看到压缩机数据</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2024,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2518,17 +2467,15 @@
         <v>0</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="44"/>
@@ -2538,10 +2485,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -2550,10 +2497,10 @@
       <c r="C38" s="48"/>
       <c r="D38" s="39"/>
       <c r="E38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
@@ -2596,7 +2543,7 @@
         <v>1003</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.5">

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BFAF2-5078-43CA-A961-8968891C73B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD2173-CB05-4180-A863-DDB233DC5EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" ht="63.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
       <c r="C37" s="48"/>
@@ -2491,7 +2491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="44"/>
       <c r="B38" s="45"/>
       <c r="C38" s="48"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD2173-CB05-4180-A863-DDB233DC5EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485EF52-DFED-4987-8F2F-ACB87A96C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,38 +1279,6 @@
   </si>
   <si>
     <r>
-      <t>* 人体线条数据点的位置： 始终处于“无人”处
-* 人体线条数据点的时间: 相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。
-* 在测试周期内, 00:00(±3分钟)处可查看到人体数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>* 压缩机线条数据点的位置: 始终处于“</t>
     </r>
     <r>
@@ -1361,6 +1329,61 @@
       </rPr>
       <t>(±3分钟)。
 * 在测试周期内, 00:00(±3分钟)处可查看到压缩机数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 人体线条数据点的位置： 始终处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”处
+* 人体线条数据点的时间: 相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。
+* 在测试周期内, 00:00(±3分钟)处可查看到人体数据</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2488,7 +2511,7 @@
         <v>54</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
@@ -2500,7 +2523,7 @@
         <v>55</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485EF52-DFED-4987-8F2F-ACB87A96C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247CF11-2747-495D-A05A-52B52AB42EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,17 +868,6 @@
       <t>"位置。
 步骤6后10秒内，空调机立即关机。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 设置节能状态
-   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
-      目标控制器 -&gt; 运行状态, 按如下设置:
-          + 空调通电状态: 通电
-          + 压缩机运行状态: 待机
-          + 节能状态: 节能
-      单击 ”保存并下发“ 按钮
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -958,108 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>*节能开启状态
-*空调机-压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态
-*人体传感器未触发
-上述状态保持无变化
-* 压缩机状态上报频率:
-  - 间隔最长</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1小时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">更新
-    状态一次
-  - 每日0点时，更新一次
-* 人体数据上报频率
-  - 间隔最长30分钟
-    更新一次
-  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*节能开启状态
-*空调机-压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态
-*人体传感器未触发
-上述状态保持无变化
-* 压缩机状态上报频率:
-  - 间隔最长1小时更新
-    状态一次
-  - 每日0点时，更新一次
-* 人体数据上报频率
-  - 间隔最长30分钟
-    更新一次</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 控制器、采集器、空调等所有设备通电，并处于在线状态
   平台可查所有设备已在线
 * 设置节能工作温度(保持空调机长时间待机)
@@ -1384,6 +1271,307 @@
       </rPr>
       <t>(±3分钟)。
 * 在测试周期内, 00:00(±3分钟)处可查看到人体数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*节能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
+*空调机-压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
+*人体传感器未触发
+上述状态保持无变化
+* 压缩机状态上报频率:
+  - 间隔最长1小时更新
+    状态一次
+  - 每日0点时，更新一次
+* 人体数据上报频率
+  - 间隔最长30分钟
+    更新一次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*节能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
+*空调机-压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态
+*人体传感器未触发
+上述状态保持无变化
+* 压缩机状态上报频率:
+  - 间隔最长</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更新
+    状态一次
+  - 每日0点时，更新一次
+* 人体数据上报频率
+  - 间隔最长30分钟
+    更新一次
+  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* 设置节能状态
+   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
+      目标控制器 -&gt; 运行状态, 按如下设置:
+          + 空调通电状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 压缩机运行状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      单击 ”保存并下发“ 按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* 设置节能状态
+   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
+      目标控制器 -&gt; 运行状态, 按如下设置:
+          + 空调通电状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 压缩机运行状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      单击 ”保存并下发“ 按钮
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1996,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2209,7 +2397,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
@@ -2303,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
@@ -2393,7 +2581,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>33</v>
@@ -2490,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D36" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>56</v>
       </c>
       <c r="F36" s="14"/>
     </row>
@@ -2505,13 +2693,13 @@
       <c r="B37" s="45"/>
       <c r="C37" s="48"/>
       <c r="D37" s="39" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
@@ -2520,10 +2708,10 @@
       <c r="C38" s="48"/>
       <c r="D38" s="39"/>
       <c r="E38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
@@ -2558,26 +2746,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" ht="162.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="45">
         <v>1004</v>
       </c>
       <c r="B41" s="45">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="57.3" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="49"/>
-    </row>
-    <row r="43" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D42" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
@@ -2613,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2650,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2688,12 +2883,13 @@
       <c r="C50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="A36:A38"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D17:D20"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247CF11-2747-495D-A05A-52B52AB42EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7881396-DACC-4ECA-87FA-BA5CBDF36461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,7 +1460,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>运行</t>
+      <t>待机</t>
     </r>
     <r>
       <rPr>
@@ -1483,7 +1483,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>关闭</t>
+      <t>开启</t>
     </r>
     <r>
       <rPr>
@@ -1494,7 +1494,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-      单击 ”保存并下发“ 按钮</t>
+      单击 ”保存并下发“ 按钮
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1536,7 +1537,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>待机</t>
+      <t>运行</t>
     </r>
     <r>
       <rPr>
@@ -1559,7 +1560,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>开启</t>
+      <t>关闭</t>
     </r>
     <r>
       <rPr>
@@ -1571,8 +1572,23 @@
       </rPr>
       <t xml:space="preserve">
       单击 ”保存并下发“ 按钮
-</t>
-    </r>
+* 参考测试环境温度
+  - 冬季时，手动开启制热，将空调保持持续运行
+  - 夏季时，手动开启制冷，将空调保持持续运行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 查看“当日实时数据" 页面-压缩机线条位置
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         运行时长， 滑动页面至彩色曲线图。
+      - 观察图中红色线条(压缩机-待机/运行)，新增数据点的
+         时间和位置
+      - 观察图中天蓝色线条(人体-有人/无人)，新增数据点的
+         时间和位置
+2 将当前测试环境保持 25小时以上, 第25小时后执行步骤1查
+   看“当日实时数据"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,7 +2201,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B43"/>
+      <selection activeCell="E43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2693,7 +2709,7 @@
       <c r="B37" s="45"/>
       <c r="C37" s="48"/>
       <c r="D37" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>51</v>
@@ -2759,20 +2775,35 @@
       <c r="D41" s="25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="57.3" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E41" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="49"/>
       <c r="D42" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.5">
+        <v>59</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
+      <c r="E43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
@@ -2804,7 +2835,7 @@
       <c r="A45" s="36">
         <v>1005</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="36">
         <v>0</v>
       </c>
       <c r="C45" s="16" t="s">
@@ -2841,7 +2872,7 @@
       <c r="A47" s="36">
         <v>1006</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="36">
         <v>0</v>
       </c>
       <c r="C47" s="16" t="s">

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7881396-DACC-4ECA-87FA-BA5CBDF36461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D7D5E-70DC-402D-BDAE-F8DB92056B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D7D5E-70DC-402D-BDAE-F8DB92056B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E9517D-AE7B-458C-992A-A0E5A3DFA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="0" windowWidth="21960" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集成" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,319 +963,6 @@
   </si>
   <si>
     <r>
-      <t>3 完成步骤2, 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”,中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据采样点。   
-   - 在测试时间内新增的所有数据点的位置。
-   - 在测试时间内新增的所有数据点的时间，比较相邻两点
-       的时间差</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4 完成步骤3, 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”,中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人体线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据采样点。   
-   - 在测试时间内新增的所有数据点的位置。
-   - 在测试时间内新增的所有数据点的时间，比较相邻两点
-       的时间差</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1 查看“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当日实时数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(压缩机-待机/运行)，新增数据点的
-         时间和位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      - 观察图中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>天蓝色线条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(人体-有人/无人)，新增数据点的
-         时间和位置
-2 将当前测试环境保持 25小时以上, 第25小时后执行步骤1查
-   看“当日实时数据"。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 压缩机线条数据点的位置: 始终处于“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压缩机待机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”处。
-* 压缩机线条数据点的时间: 相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1小时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。
-* 在测试周期内, 00:00(±3分钟)处可查看到压缩机数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>* 人体线条数据点的位置： 始终处于“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”处
-* 人体线条数据点的时间: 相邻数据点的时间差
-   不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(±3分钟)。
-* 在测试周期内, 00:00(±3分钟)处可查看到人体数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>*节能</t>
     </r>
     <r>
@@ -1338,6 +1025,83 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">* 设置节能状态
+   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
+      目标控制器 -&gt; 运行状态, 按如下设置:
+          + 空调通电状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 压缩机运行状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      单击 ”保存并下发“ 按钮
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>*节能</t>
     </r>
     <r>
@@ -1414,11 +1178,136 @@
       </rPr>
       <t xml:space="preserve">更新
     状态一次
-  - 每日0点时，更新一次
-* 人体数据上报频率
-  - 间隔最长30分钟
-    更新一次
-  </t>
+  - 每日0点时，更新一次  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 压缩机线条数据点的时间: 相邻数据点的时间差
+   不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(±3分钟)。
+* 在测试周期内, 00:00(±3分钟)处可查看到压缩机数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 查看“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" 页面-压缩机数据点
+      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
+         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启停时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+      - 观察图中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，新增数据点的时间
+      - 记录当前时间 时:分:秒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2 完成步骤1, 每间隔70分钟查看一次“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,中新增
+   数据采样点。   
+   - 在测试时间内新增的所有数据点的时间，比较相邻两点
+       的时间差</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1460,7 +1349,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>待机</t>
+      <t>运行</t>
     </r>
     <r>
       <rPr>
@@ -1483,7 +1372,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>开启</t>
+      <t>关闭</t>
     </r>
     <r>
       <rPr>
@@ -1495,100 +1384,54 @@
       </rPr>
       <t xml:space="preserve">
       单击 ”保存并下发“ 按钮
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* 设置节能状态
-   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
-      目标控制器 -&gt; 运行状态, 按如下设置:
-          + 空调通电状态: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-          + 压缩机运行状态: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-          + 节能状态: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      单击 ”保存并下发“ 按钮
-* 参考测试环境温度
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参考测试环境温度
   - 冬季时，手动开启制热，将空调保持持续运行
   - 夏季时，手动开启制冷，将空调保持持续运行</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 查看“当日实时数据" 页面-压缩机线条位置
-      - 登录平台，设备管理 -&gt; 站点设备信息 -&gt; 
-         目标站点 -&gt; 数据报表 -&gt; 设备数据 -&gt; 目标空调 -&gt; 
-         运行时长， 滑动页面至彩色曲线图。
-      - 观察图中红色线条(压缩机-待机/运行)，新增数据点的
-         时间和位置
-      - 观察图中天蓝色线条(人体-有人/无人)，新增数据点的
-         时间和位置
-2 将当前测试环境保持 25小时以上, 第25小时后执行步骤1查
-   看“当日实时数据"。</t>
+    <r>
+      <t>2 完成步骤1, 每间隔6小时查看一次“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日实时数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,中新增
+   数据采样点。共计检测数据持续时长大于25小时。
+   - 在测试时间内新增的所有数据点的时间，比较相邻两点
+       的时间差</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1853,65 +1696,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2198,16 +2041,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="10.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="43" customWidth="1"/>
     <col min="4" max="4" width="46.84765625" style="13" customWidth="1"/>
     <col min="5" max="5" width="46.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.34765625" customWidth="1"/>
@@ -2217,113 +2060,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="38"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2331,13 +2174,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2345,11 +2188,11 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2357,9 +2200,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2369,7 +2212,7 @@
     <row r="15" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="51"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2383,7 +2226,7 @@
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2403,16 +2246,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="42">
+      <c r="A17" s="53">
         <v>1000</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="44">
         <v>0</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -2423,10 +2266,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
@@ -2437,10 +2280,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
@@ -2451,17 +2294,17 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="42"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="18"/>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
@@ -2477,7 +2320,7 @@
       <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2497,16 +2340,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46">
+      <c r="A23" s="49">
         <v>1001</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="44">
         <v>0</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -2516,10 +2359,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="71.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="14" t="s">
         <v>23</v>
       </c>
@@ -2529,10 +2372,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
@@ -2542,10 +2385,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2557,7 +2400,7 @@
     <row r="27" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="53"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2567,7 +2410,7 @@
       <c r="B28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2587,16 +2430,16 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="47">
+      <c r="A29" s="50">
         <v>1002</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="44">
         <v>0</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="45" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="14" t="s">
@@ -2607,10 +2450,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="47"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="14" t="s">
         <v>34</v>
       </c>
@@ -2619,10 +2462,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="47"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="35" t="s">
         <v>40</v>
       </c>
@@ -2631,10 +2474,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="114.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="14" t="s">
         <v>44</v>
       </c>
@@ -2643,10 +2486,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="126" x14ac:dyDescent="0.5">
-      <c r="A33" s="47"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="14" t="s">
         <v>41</v>
       </c>
@@ -2657,7 +2500,7 @@
     <row r="34" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="54"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2667,7 +2510,7 @@
       <c r="B35" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2686,123 +2529,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="44">
+    <row r="36" spans="1:8" ht="151.19999999999999" x14ac:dyDescent="0.5">
+      <c r="A36" s="47">
         <v>1003</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>57</v>
+      <c r="C36" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="63.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="39" t="s">
-        <v>58</v>
+    <row r="37" spans="1:8" ht="100.8" x14ac:dyDescent="0.5">
+      <c r="A37" s="47"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="14" t="s">
+    <row r="38" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="162.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="44">
+        <v>1004</v>
+      </c>
+      <c r="B40" s="44">
+        <v>0</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A40" s="6" t="s">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" ht="126" x14ac:dyDescent="0.5">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C42" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="162.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="45">
-        <v>1004</v>
-      </c>
-      <c r="B41" s="45">
+    <row r="43" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="36">
+        <v>1005</v>
+      </c>
+      <c r="B43" s="36">
         <v>0</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>55</v>
+      <c r="C43" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2812,7 +2669,7 @@
       <c r="B44" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -2831,15 +2688,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="78.3" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="36">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B45" s="36">
         <v>0</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
@@ -2849,7 +2706,7 @@
       <c r="B46" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -2868,77 +2725,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="78.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="36">
-        <v>1006</v>
-      </c>
-      <c r="B47" s="36">
-        <v>0</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B47" s="13"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B48" s="13"/>
+      <c r="C48" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="33">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -2950,6 +2746,28 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E9517D-AE7B-458C-992A-A0E5A3DFA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E4595-2A91-4CC8-8376-C72C4428296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="0" windowWidth="21960" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>状态同步</t>
   </si>
@@ -6678,12 +6678,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
       <t>节能</t>
     </r>
     <r>
@@ -6703,7 +6697,7 @@
         <charset val="134"/>
       </rPr>
       <t>非节能状态
-同步</t>
+改变后及时同步</t>
     </r>
   </si>
   <si>
@@ -7230,12 +7224,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">* </t>
     </r>
     <r>
@@ -7243,7 +7231,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设置节能状态
    </t>
@@ -7262,7 +7250,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登录平台，设备管理 </t>
     </r>
@@ -7280,7 +7268,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在运行控制器维护 </t>
     </r>
@@ -7299,7 +7287,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">目标控制器 </t>
     </r>
@@ -7317,7 +7305,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>运行状态</t>
     </r>
@@ -7335,7 +7323,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>按如下设置</t>
     </r>
@@ -7354,7 +7342,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>空调通电状态</t>
     </r>
@@ -7372,7 +7360,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">通电
           </t>
@@ -7391,7 +7379,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>压缩机运行状态</t>
     </r>
@@ -7409,7 +7397,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">运行
           </t>
@@ -7428,7 +7416,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>节能状态</t>
     </r>
@@ -7447,7 +7435,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关闭
 </t>
@@ -7457,7 +7445,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">      单击 ”保存并下发“ 按钮</t>
     </r>
@@ -7528,66 +7516,348 @@
 “用电数据”页面中“当日实时用电数据”-》电流图形，最新数据处于波峰位置(数值通常&gt;1.0)。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">压缩机运行时长统计
+    <t>人体传感器触发/未触发
+发生改变及时同步</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">控制器、采集器、空调、人体等所有设备通电，并处于在线状态
+  平台可查所有设备已在线
 </t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.5"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（数据报表</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.5"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行时长</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.5"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩机运行时长）</t>
-    </r>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">设置节能工作温度 
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>登录平台，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>设备管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>" -&gt; "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>在运行控制器维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>单击“查询”， 在查询列表中选择目标控制器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">在控制器的“节能配置”中设置：
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">工作温度上限： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">28℃
+      + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>工作参数上限补偿值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: 0 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+      + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">工作温度下限： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>19℃ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>参考测试环境，
+          此值高于实测空调待机时回风温度，
+         且在空调制冷能力范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+      + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>工作参数下限补偿值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: 0 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* 设置节能状态
+   - 登录平台，设备管理 -&gt;  在运行控制器维护 -&gt; 
+      目标控制器 -&gt; 运行状态, 按如下设置:
+          + 空调通电状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 压缩机运行状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+          + 节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+      单击 ”保存并下发“ 按钮</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* 人体传感器环境
+</t>
   </si>
 </sst>
 </file>
@@ -7600,7 +7870,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7612,6 +7882,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7660,17 +7936,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Noto Sans CJK SC"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7851,20 +8127,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.5"/>
-      <name val="Noto Sans CJK SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.5"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -8222,21 +8484,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8245,119 +8504,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8366,61 +8628,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8429,16 +8692,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8447,7 +8710,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8459,7 +8722,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8468,65 +8731,65 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9051,17 +9314,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.525" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="2" width="9.23333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.0666666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="54.5083333333333" style="8" customWidth="1"/>
+    <col min="1" max="2" width="9.23333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.3166666666667" style="8" customWidth="1"/>
+    <col min="4" max="4" width="54.5083333333333" style="9" customWidth="1"/>
     <col min="5" max="5" width="48.3166666666667" customWidth="1"/>
     <col min="6" max="6" width="48.4333333333333" customWidth="1"/>
     <col min="7" max="7" width="27.4" customWidth="1"/>
@@ -9070,658 +9333,658 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.6" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="67.5" customHeight="1" spans="1:6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" ht="15.65" customHeight="1" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" ht="15.65" customHeight="1" spans="1:8">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="67.5" customHeight="1" spans="1:8">
-      <c r="A17" s="25">
+      <c r="A17" s="26">
         <v>1000</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>0</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" ht="77.25" customHeight="1" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="17" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" ht="45.75" customHeight="1" spans="1:8">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="54" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:8">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:11">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="K21" s="60"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="K21" s="61"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="69.75" customHeight="1" spans="1:11">
-      <c r="A23" s="31">
+      <c r="A23" s="32">
         <v>1001</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="27">
         <v>0</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="K23" s="61"/>
+      <c r="F23" s="18"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" ht="71.25" customHeight="1" spans="1:11">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" ht="69.75" customHeight="1" spans="1:11">
-      <c r="A25" s="31"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="17" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" ht="56.25" customHeight="1" spans="1:11">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="54" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="61"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:4">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="103.5" customHeight="1" spans="1:6">
-      <c r="A29" s="35">
+      <c r="A29" s="36">
         <v>1002</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="27">
         <v>0</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" ht="118.15" spans="1:6">
-      <c r="A30" s="35"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="59" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" ht="47.25" customHeight="1" spans="1:6">
-      <c r="A31" s="35"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="45" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" ht="114.75" customHeight="1" spans="1:6">
-      <c r="A32" s="35"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" ht="168.75" spans="1:6">
-      <c r="A33" s="35"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:4">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" ht="171.6" customHeight="1" spans="1:6">
-      <c r="A36" s="39">
+      <c r="A36" s="40">
         <v>1003</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="27">
         <v>0</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" ht="135" spans="1:6">
-      <c r="A37" s="39"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:4">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" ht="162.75" customHeight="1" spans="1:6">
-      <c r="A40" s="26">
+      <c r="A40" s="27">
         <v>1004</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="27">
         <v>0</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" ht="152.2" customHeight="1" spans="1:6">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="45" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" ht="252.75" spans="1:6">
-      <c r="A43" s="26">
+      <c r="A43" s="27">
         <v>1005</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="27">
         <v>0</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="60" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" ht="135" spans="1:6">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="45" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="60" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" ht="78" customHeight="1" spans="1:3">
+    <row r="46" ht="202.5" spans="1:4">
       <c r="A46" s="47">
         <v>1006</v>
       </c>
@@ -9731,43 +9994,62 @@
       <c r="C46" s="48" t="s">
         <v>65</v>
       </c>
+      <c r="D46" s="42" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A47" s="23" t="s">
+    <row r="47" s="6" customFormat="1" ht="127" customHeight="1" spans="1:4">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="1" ht="127" customHeight="1" spans="1:4">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="23.25" spans="1:8">
+      <c r="A49" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E49" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H49" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="8"/>
-      <c r="C48" s="49"/>
+    <row r="50" spans="2:3">
+      <c r="B50" s="9"/>
+      <c r="C50" s="50"/>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="8"/>
-      <c r="C49" s="49"/>
+    <row r="51" spans="2:3">
+      <c r="B51" s="9"/>
+      <c r="C51" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="39">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -9789,18 +10071,21 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C48"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D29:D33"/>

--- a/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
+++ b/docs/source/_static/testcase/集成测试/采集器状态同步-1000.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFBD31-8664-47C0-A228-3480AD8F7484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14775" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19584" windowHeight="13758" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集成" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +33,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -58,7 +52,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>(2P/3P)x1</t>
     </r>
@@ -69,7 +64,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -87,7 +83,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>x1</t>
     </r>
@@ -98,7 +95,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -116,7 +114,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>x1</t>
     </r>
@@ -127,7 +126,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -145,7 +145,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>x1</t>
     </r>
@@ -156,7 +157,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">5 </t>
     </r>
@@ -174,7 +176,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>x1</t>
     </r>
@@ -185,7 +188,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">6 </t>
     </r>
@@ -203,7 +207,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>3P x1 (</t>
     </r>
@@ -221,7 +226,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -232,7 +238,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">7 </t>
     </r>
@@ -250,7 +257,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">x1 </t>
     </r>
@@ -270,7 +278,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">8
 </t>
@@ -290,7 +299,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -309,7 +319,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>485</t>
     </r>
@@ -329,7 +340,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">9 </t>
     </r>
@@ -397,6 +409,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -416,6 +429,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1-1.5m</t>
@@ -436,6 +450,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -454,6 +469,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>" -&gt; "</t>
@@ -472,6 +488,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" 
@@ -491,6 +508,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -511,6 +529,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -529,6 +548,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">28℃
@@ -548,6 +568,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
@@ -566,6 +587,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -585,6 +607,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>19℃ (</t>
@@ -605,6 +628,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -624,6 +648,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
@@ -642,6 +667,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -653,6 +679,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -672,6 +699,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -691,6 +719,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -709,6 +738,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -727,6 +757,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
@@ -746,6 +777,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -764,6 +796,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -783,6 +816,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -801,6 +835,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -821,6 +856,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
@@ -839,6 +875,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -857,6 +894,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -875,6 +913,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -894,6 +933,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -913,6 +953,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -933,6 +974,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -951,6 +993,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -989,6 +1032,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -1008,6 +1052,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -1028,6 +1073,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 </t>
@@ -1046,6 +1092,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1064,6 +1111,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -1082,6 +1130,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -1101,6 +1150,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -1119,6 +1169,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1137,6 +1188,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1155,6 +1207,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -1175,6 +1228,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1193,6 +1247,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -1231,6 +1286,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -1250,6 +1306,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -1268,6 +1325,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, 
@@ -1287,6 +1345,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>20s</t>
@@ -1341,7 +1400,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
   * </t>
@@ -1360,7 +1420,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>1-1.5m</t>
     </r>
@@ -1380,7 +1441,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1398,7 +1460,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>" -&gt; "</t>
     </r>
@@ -1416,7 +1479,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" 
   </t>
@@ -1435,7 +1499,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
   </t>
@@ -1455,7 +1520,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -1473,7 +1539,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">28℃
     * </t>
@@ -1492,7 +1559,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -1510,7 +1578,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
     * </t>
@@ -1529,7 +1598,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>19℃ (</t>
     </r>
@@ -1549,7 +1619,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
     * </t>
@@ -1568,7 +1639,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -1586,7 +1658,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1597,6 +1670,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
@@ -1615,6 +1689,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1633,6 +1708,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1651,6 +1727,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -1670,6 +1747,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1689,6 +1767,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1709,6 +1788,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1727,6 +1807,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -1786,6 +1867,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 </t>
@@ -1805,6 +1887,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -1824,6 +1907,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -1842,6 +1926,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -1860,6 +1945,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -1879,6 +1965,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
@@ -1898,6 +1985,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -1927,6 +2015,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1945,6 +2034,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: 
@@ -1964,6 +2054,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -1984,6 +2075,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">4  </t>
@@ -2002,6 +2094,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" </t>
@@ -2021,6 +2114,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -2039,6 +2133,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -2057,6 +2152,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -2086,6 +2182,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -2104,6 +2201,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -2133,6 +2231,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -2152,6 +2251,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -2190,6 +2290,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -2208,6 +2309,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>20</t>
@@ -2285,6 +2387,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -2306,7 +2409,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -2324,7 +2428,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
    </t>
@@ -2343,7 +2448,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2361,7 +2467,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2379,7 +2486,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
     </r>
@@ -2397,7 +2505,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
    </t>
@@ -2416,7 +2525,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
     </r>
@@ -2434,7 +2544,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
         - </t>
@@ -2453,7 +2564,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -2472,7 +2584,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -2490,7 +2603,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -2509,7 +2623,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -2527,7 +2642,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -2548,7 +2664,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2566,7 +2683,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2584,7 +2702,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
   * </t>
@@ -2603,7 +2722,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>1-1.5m</t>
     </r>
@@ -2623,7 +2743,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -2641,7 +2762,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>" -&gt; "</t>
     </r>
@@ -2659,7 +2781,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" 
   </t>
@@ -2678,7 +2801,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
   </t>
@@ -2698,7 +2822,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -2716,7 +2841,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">28℃
     * </t>
@@ -2735,7 +2861,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -2753,7 +2880,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
     * </t>
@@ -2772,7 +2900,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>19℃ (</t>
     </r>
@@ -2792,7 +2921,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
     * </t>
@@ -2811,7 +2941,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -2829,7 +2960,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2840,6 +2972,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -2860,6 +2993,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -2878,6 +3012,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -2896,6 +3031,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -2914,6 +3050,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
@@ -2933,6 +3070,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -2952,6 +3090,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -2970,6 +3109,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>::</t>
@@ -2989,6 +3129,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -3007,6 +3148,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -3026,6 +3168,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -3044,6 +3187,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -3065,7 +3209,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -3084,7 +3229,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3102,7 +3248,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.0)
 * </t>
@@ -3121,7 +3268,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3140,7 +3288,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3179,7 +3328,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>* (</t>
     </r>
@@ -3197,7 +3347,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3218,6 +3369,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
@@ -3236,6 +3388,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -3255,6 +3408,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -3273,6 +3427,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -3291,6 +3446,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -3309,6 +3465,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
@@ -3328,6 +3485,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -3346,6 +3504,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -3365,6 +3524,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:  </t>
@@ -3384,6 +3544,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -3402,6 +3563,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -3421,6 +3583,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -3439,6 +3602,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -3479,7 +3643,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>10</t>
     </r>
@@ -3498,7 +3663,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"
 </t>
@@ -3519,7 +3685,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -3538,7 +3705,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -3556,7 +3724,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>20℃
         (</t>
@@ -3575,7 +3744,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2℃</t>
     </r>
@@ -3593,7 +3763,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>18℃)</t>
     </r>
@@ -3613,6 +3784,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -3633,6 +3805,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">4 </t>
@@ -3651,6 +3824,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -3669,6 +3843,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,
@@ -3689,6 +3864,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -3707,6 +3883,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -3725,6 +3902,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -3743,6 +3921,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
@@ -3762,6 +3941,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -3781,6 +3961,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -3809,6 +3990,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>::</t>
@@ -3838,6 +4020,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -3856,6 +4039,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -3875,6 +4059,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -3894,6 +4079,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -3913,6 +4099,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -3931,6 +4118,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -3951,6 +4139,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -3969,6 +4158,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>::</t>
@@ -3987,6 +4177,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -4006,6 +4197,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -4024,6 +4216,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -4043,6 +4236,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -4062,6 +4256,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -4080,6 +4275,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -4120,6 +4316,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">5 </t>
@@ -4138,6 +4335,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -4156,6 +4354,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -4176,6 +4375,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -4194,6 +4394,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">16℃
@@ -4213,6 +4414,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -4232,6 +4434,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -4250,6 +4453,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -4268,6 +4472,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -4286,6 +4491,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;
@@ -4305,6 +4511,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-&gt;</t>
@@ -4323,6 +4530,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -4342,6 +4550,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:  </t>
@@ -4361,6 +4570,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -4379,6 +4589,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -4398,6 +4609,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -4416,6 +4628,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -4465,6 +4678,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -4483,6 +4697,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -4502,6 +4717,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -4520,6 +4736,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>::</t>
@@ -4539,6 +4756,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -4557,6 +4775,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.0)
@@ -4576,6 +4795,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">4, </t>
@@ -4594,6 +4814,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.0</t>
@@ -4613,6 +4834,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -4641,6 +4863,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -4660,6 +4883,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -4678,6 +4902,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10</t>
@@ -4698,6 +4923,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -4736,6 +4962,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -4754,6 +4981,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -4792,6 +5020,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -4812,6 +5041,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -4830,6 +5060,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -4850,6 +5081,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -4880,6 +5112,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -4898,6 +5131,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -4918,7 +5152,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -4938,7 +5173,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -4956,7 +5192,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -4974,7 +5211,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
   - </t>
@@ -4993,7 +5231,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -5011,7 +5250,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>" -&gt; "</t>
     </r>
@@ -5029,7 +5269,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" 
      </t>
@@ -5048,7 +5289,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
      </t>
@@ -5068,7 +5310,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -5086,7 +5329,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">28℃
       + </t>
@@ -5105,7 +5349,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -5123,7 +5368,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
       + </t>
@@ -5142,7 +5388,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>19℃ (</t>
     </r>
@@ -5162,7 +5409,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
       + </t>
@@ -5181,7 +5429,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -5199,7 +5448,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5210,7 +5460,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -5238,7 +5489,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" </t>
     </r>
@@ -5256,7 +5508,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -5275,7 +5528,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -5293,7 +5547,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -5311,7 +5566,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; 
          </t>
@@ -5330,7 +5586,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -5348,7 +5605,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -5366,7 +5624,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -5384,7 +5643,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; 
          </t>
@@ -5414,7 +5674,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -5433,6 +5694,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -5451,6 +5713,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -5469,6 +5732,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -5489,7 +5753,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -5508,7 +5773,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -5526,7 +5792,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;  </t>
     </r>
@@ -5544,7 +5811,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; 
       </t>
@@ -5563,7 +5831,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -5581,7 +5850,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5599,7 +5869,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
           + </t>
@@ -5618,7 +5889,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -5637,7 +5909,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -5655,7 +5928,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -5674,7 +5948,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -5692,7 +5967,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -5724,6 +6000,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
@@ -5742,6 +6019,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1, </t>
@@ -5760,6 +6038,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>70</t>
@@ -5797,6 +6076,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -5817,6 +6097,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -5838,6 +6119,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -5856,6 +6138,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -5876,6 +6159,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -5895,6 +6179,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(±3</t>
@@ -5913,6 +6198,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -5932,6 +6218,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -5950,6 +6237,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>, 00:00(±3</t>
@@ -5968,6 +6256,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -5988,6 +6277,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -6026,6 +6316,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -6044,6 +6335,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -6082,6 +6374,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -6102,6 +6395,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -6120,6 +6414,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
@@ -6139,6 +6434,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -6159,6 +6455,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -6177,6 +6474,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -6196,6 +6494,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -6215,6 +6514,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -6233,6 +6533,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -6254,7 +6555,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -6273,7 +6575,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -6291,7 +6594,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;  </t>
     </r>
@@ -6309,7 +6613,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; 
       </t>
@@ -6328,7 +6633,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -6346,7 +6652,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6364,7 +6671,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
           + </t>
@@ -6383,7 +6691,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -6402,7 +6711,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -6420,7 +6730,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -6439,7 +6750,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -6457,7 +6769,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -6487,7 +6800,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -6508,6 +6822,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -6529,6 +6844,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -6550,6 +6866,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
@@ -6568,6 +6885,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1, </t>
@@ -6586,6 +6904,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -6623,6 +6942,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -6642,6 +6962,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>25</t>
@@ -6661,6 +6982,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
@@ -6685,6 +7007,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -6706,7 +7029,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -6726,7 +7050,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -6745,7 +7070,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -6763,7 +7089,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -6781,7 +7108,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>" -&gt; "</t>
     </r>
@@ -6799,7 +7127,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" 
      </t>
@@ -6818,7 +7147,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
      </t>
@@ -6838,7 +7168,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -6856,7 +7187,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">28℃
       + </t>
@@ -6875,7 +7207,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -6893,7 +7226,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
       + </t>
@@ -6912,7 +7246,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>19℃ (</t>
     </r>
@@ -6932,7 +7267,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
       + </t>
@@ -6951,7 +7287,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -6969,7 +7306,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
   - </t>
@@ -6988,7 +7326,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:  </t>
     </r>
@@ -6998,6 +7337,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -7018,6 +7358,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -7028,7 +7369,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -7046,7 +7388,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -7064,7 +7407,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2℃.
       </t>
@@ -7083,7 +7427,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -7101,7 +7446,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>10℃</t>
     </r>
@@ -7120,7 +7466,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">通电
 </t>
@@ -7130,7 +7476,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">         压缩机运行状态: </t>
     </r>
@@ -7140,7 +7486,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">待机
 </t>
@@ -7150,7 +7496,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">         节能状态: </t>
     </r>
@@ -7160,7 +7506,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">开启
 </t>
@@ -7170,7 +7516,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2 查看站点设备状态
     -  登陆平台(运维账号)，进入 设备管理-&gt;站点设备信息-&gt;
@@ -7182,7 +7528,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
     </t>
@@ -7192,7 +7538,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -7202,7 +7548,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -7211,7 +7557,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>进入设备管理-&gt;站点设备信息-&gt;目标站点-&gt;数据报表-&gt;
         用电数据-&gt;目标空调。</t>
@@ -7231,7 +7577,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">设置节能状态
    </t>
@@ -7241,7 +7587,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -7250,7 +7597,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">登录平台，设备管理 </t>
     </r>
@@ -7259,7 +7606,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt;  </t>
     </r>
@@ -7268,7 +7616,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">在运行控制器维护 </t>
     </r>
@@ -7277,7 +7625,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; 
       </t>
@@ -7287,7 +7636,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目标控制器 </t>
     </r>
@@ -7296,7 +7645,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">-&gt; </t>
     </r>
@@ -7305,7 +7655,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>运行状态</t>
     </r>
@@ -7314,7 +7664,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7323,7 +7674,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>按如下设置</t>
     </r>
@@ -7332,7 +7683,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:
           + </t>
@@ -7342,7 +7694,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>空调通电状态</t>
     </r>
@@ -7351,7 +7703,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -7360,7 +7713,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">通电
           </t>
@@ -7370,7 +7723,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -7379,7 +7733,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>压缩机运行状态</t>
     </r>
@@ -7388,7 +7742,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -7397,7 +7752,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">运行
           </t>
@@ -7407,7 +7762,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -7416,7 +7772,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>节能状态</t>
     </r>
@@ -7425,7 +7781,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -7435,7 +7792,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">关闭
 </t>
@@ -7445,7 +7802,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      单击 ”保存并下发“ 按钮</t>
     </r>
@@ -7464,7 +7821,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">通电
 </t>
@@ -7474,7 +7831,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">         压缩机运行状态: </t>
     </r>
@@ -7484,7 +7841,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">待机
 </t>
@@ -7494,7 +7851,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">         节能状态: </t>
     </r>
@@ -7504,7 +7861,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">关闭
 </t>
@@ -7528,7 +7885,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">控制器、采集器、空调、人体等所有设备通电，并处于在线状态
   平台可查所有设备已在线
@@ -7539,7 +7896,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -7548,7 +7906,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">设置节能工作温度 
   </t>
@@ -7558,7 +7916,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -7567,7 +7926,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>登录平台，</t>
     </r>
@@ -7576,7 +7935,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -7585,7 +7945,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>设备管理</t>
     </r>
@@ -7594,7 +7954,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>" -&gt; "</t>
     </r>
@@ -7603,7 +7964,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在运行控制器维护</t>
     </r>
@@ -7612,7 +7973,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">" 
      </t>
@@ -7622,7 +7984,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单击“查询”， 在查询列表中选择目标控制器</t>
     </r>
@@ -7631,7 +7993,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
      </t>
@@ -7641,7 +8004,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">在控制器的“节能配置”中设置：
       </t>
@@ -7651,7 +8014,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -7660,7 +8024,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">工作温度上限： </t>
     </r>
@@ -7669,7 +8033,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">28℃
       + </t>
@@ -7679,7 +8044,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>工作参数上限补偿值</t>
     </r>
@@ -7688,7 +8053,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -7697,7 +8063,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认</t>
     </r>
@@ -7706,7 +8072,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
       + </t>
@@ -7716,7 +8083,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">工作温度下限： </t>
     </r>
@@ -7725,7 +8092,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>19℃ (</t>
     </r>
@@ -7734,7 +8102,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>参考测试环境，
           此值高于实测空调待机时回风温度，
@@ -7745,7 +8113,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
       + </t>
@@ -7755,7 +8124,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>工作参数下限补偿值</t>
     </r>
@@ -7764,7 +8133,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>: 0 (</t>
     </r>
@@ -7773,7 +8143,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认</t>
     </r>
@@ -7782,7 +8152,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7800,7 +8171,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>通电</t>
     </r>
@@ -7809,7 +8180,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
           + 压缩机运行状态: </t>
@@ -7820,7 +8191,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>运行</t>
     </r>
@@ -7829,7 +8200,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
           + 节能状态: </t>
@@ -7840,7 +8211,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>开启</t>
     </r>
@@ -7849,7 +8220,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
       单击 ”保存并下发“ 按钮</t>
@@ -7858,19 +8229,14 @@
   <si>
     <t xml:space="preserve">* 人体传感器环境
 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7881,6 +8247,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7893,6 +8260,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7913,7 +8281,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7926,6 +8295,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7939,182 +8309,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Noto Serif CJK SC"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -8128,14 +8344,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Noto Sans CJK SC"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -8144,8 +8354,14 @@
       <name val="Noto Sans CJK SC"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8154,228 +8370,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor rgb="FFD6DCE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999"/>
+        <fgColor theme="4" tint="0.59987182226020086"/>
         <bgColor rgb="FFD6DCE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999"/>
+        <fgColor theme="3" tint="0.79989013336588644"/>
         <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999"/>
+        <fgColor theme="7" tint="0.59987182226020086"/>
         <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999"/>
+        <fgColor theme="9" tint="0.59987182226020086"/>
         <bgColor rgb="FFD6DCE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999"/>
+        <fgColor theme="5" tint="0.59987182226020086"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -8383,243 +8413,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8638,13 +8436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8656,17 +8448,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8686,26 +8472,17 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8716,9 +8493,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8728,13 +8502,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8749,12 +8517,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8768,12 +8530,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8782,9 +8538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8795,90 +8548,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -8889,7 +8753,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -8917,149 +8781,32 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -9134,6 +8881,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -9191,7 +8941,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9308,768 +9058,759 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.525" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="7.5234375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.23333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.3166666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="54.5083333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="48.3166666666667" customWidth="1"/>
-    <col min="6" max="6" width="48.4333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
-    <col min="8" max="8" width="28.6916666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.6916666666667" customWidth="1"/>
+    <col min="1" max="1" width="15" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.62890625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.3125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="54.5234375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="48.3125" customWidth="1"/>
+    <col min="6" max="6" width="48.41796875" customWidth="1"/>
+    <col min="7" max="7" width="27.41796875" customWidth="1"/>
+    <col min="8" max="8" width="28.68359375" customWidth="1"/>
+    <col min="11" max="11" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.6" spans="1:8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
-    <row r="9" ht="67.5" customHeight="1" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:8" ht="67.5" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
-    <row r="12" ht="15.65" customHeight="1" spans="1:8">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:8" ht="15.7" customHeight="1">
+      <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
-    <row r="13" ht="15.65" customHeight="1" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:8" ht="15.7" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+    <row r="14" spans="1:8" ht="14.1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
-    <row r="15" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.3">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" ht="67.5" customHeight="1" spans="1:8">
-      <c r="A17" s="26">
+    <row r="17" spans="1:11" ht="67.5" customHeight="1">
+      <c r="A17" s="54">
         <v>1000</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="58">
         <v>0</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
-    <row r="18" ht="77.25" customHeight="1" spans="1:8">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="18" t="s">
+    <row r="18" spans="1:11" ht="77.25" customHeight="1">
+      <c r="A18" s="54"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:8">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="55" t="s">
+    <row r="19" spans="1:11" ht="45.75" customHeight="1">
+      <c r="A19" s="54"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:8">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+    <row r="20" spans="1:11" ht="42" customHeight="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:11">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="K21" s="61"/>
+    <row r="21" spans="1:11" s="2" customFormat="1">
+      <c r="A21" s="54"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="K21" s="46"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="18.3">
+      <c r="A22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="69.75" customHeight="1" spans="1:11">
-      <c r="A23" s="32">
+    <row r="23" spans="1:11" ht="69.75" customHeight="1">
+      <c r="A23" s="55">
         <v>1001</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="58">
         <v>0</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="K23" s="62"/>
+      <c r="F23" s="15"/>
+      <c r="K23" s="47"/>
     </row>
-    <row r="24" ht="71.25" customHeight="1" spans="1:11">
-      <c r="A24" s="32"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="18" t="s">
+    <row r="24" spans="1:11" ht="71.25" customHeight="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="62"/>
+      <c r="K24" s="47"/>
     </row>
-    <row r="25" ht="69.75" customHeight="1" spans="1:11">
-      <c r="A25" s="32"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="18" t="s">
+    <row r="25" spans="1:11" ht="69.75" customHeight="1">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="62"/>
+      <c r="K25" s="47"/>
     </row>
-    <row r="26" ht="56.25" customHeight="1" spans="1:11">
-      <c r="A26" s="32"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="55" t="s">
+    <row r="26" spans="1:11" ht="56.25" customHeight="1">
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="62"/>
+      <c r="K26" s="47"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+    <row r="27" spans="1:11" s="3" customFormat="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="18.3">
+      <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="103.5" customHeight="1" spans="1:6">
-      <c r="A29" s="36">
+    <row r="29" spans="1:11" ht="103.5" customHeight="1">
+      <c r="A29" s="56">
         <v>1002</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="58">
         <v>0</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" ht="118.15" spans="1:6">
-      <c r="A30" s="36"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="18" t="s">
+    <row r="30" spans="1:11" ht="92.1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" ht="47.25" customHeight="1" spans="1:6">
-      <c r="A31" s="36"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="46" t="s">
+    <row r="31" spans="1:11" ht="47.25" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" ht="114.75" customHeight="1" spans="1:6">
-      <c r="A32" s="36"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="18" t="s">
+    <row r="32" spans="1:11" ht="114.75" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" ht="168.75" spans="1:6">
-      <c r="A33" s="36"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="18" t="s">
+    <row r="33" spans="1:8" ht="131.69999999999999">
+      <c r="A33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
+    <row r="34" spans="1:8" s="4" customFormat="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="18.3">
+      <c r="A35" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" ht="171.6" customHeight="1" spans="1:6">
-      <c r="A36" s="40">
+    <row r="36" spans="1:8" ht="171.6" customHeight="1">
+      <c r="A36" s="57">
         <v>1003</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="58">
         <v>0</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="15"/>
     </row>
-    <row r="37" ht="135" spans="1:6">
-      <c r="A37" s="40"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42" t="s">
+    <row r="37" spans="1:8" ht="105">
+      <c r="A37" s="57"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" spans="1:4">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
+    <row r="38" spans="1:8" s="5" customFormat="1">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="18.3">
+      <c r="A39" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" ht="162.75" customHeight="1" spans="1:6">
-      <c r="A40" s="27">
+    <row r="40" spans="1:8" ht="162.75" customHeight="1">
+      <c r="A40" s="58">
         <v>1004</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="58">
         <v>0</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="15"/>
     </row>
-    <row r="41" ht="152.2" customHeight="1" spans="1:6">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="46" t="s">
+    <row r="41" spans="1:8" ht="152.19999999999999" customHeight="1">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="18.3">
+      <c r="A42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" ht="252.75" spans="1:6">
-      <c r="A43" s="27">
+    <row r="43" spans="1:8" ht="206.4">
+      <c r="A43" s="58">
         <v>1005</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="58">
         <v>0</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" ht="135" spans="1:6">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="46" t="s">
+    <row r="44" spans="1:8" ht="116.1">
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="18.3">
+      <c r="A45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" ht="202.5" spans="1:4">
-      <c r="A46" s="47">
+    <row r="46" spans="1:8" ht="178.2" customHeight="1">
+      <c r="A46" s="58">
         <v>1006</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="58">
         <v>0</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" s="6" customFormat="1" ht="127" customHeight="1" spans="1:4">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49" t="s">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="127" customHeight="1">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1" ht="127" customHeight="1" spans="1:4">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49" t="s">
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="127" customHeight="1">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="18.3">
+      <c r="A49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:8" ht="14.1">
       <c r="B50" s="9"/>
-      <c r="C50" s="50"/>
+      <c r="C50" s="38"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="1:8" ht="14.1">
       <c r="B51" s="9"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B17:B20"/>
@@ -10079,19 +9820,29 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>